--- a/results/NAB.xlsx
+++ b/results/NAB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6946,6 +6946,2184 @@
       </c>
       <c r="P133" t="n">
         <v>-24.97331735467917</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>22</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>0.5318701267242432</v>
+      </c>
+      <c r="E134" t="n">
+        <v>23.30774489258458</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>34.4054510818918</v>
+      </c>
+      <c r="H134" t="n">
+        <v>52</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>11.09770618930722</v>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>170</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>0.816895604133606</v>
+      </c>
+      <c r="E135" t="n">
+        <v>32.30532218567011</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>37.47355220894914</v>
+      </c>
+      <c r="H135" t="n">
+        <v>39</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-5.483874879738702</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>5.16823002327903</v>
+      </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>265</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>1.220664620399475</v>
+      </c>
+      <c r="E136" t="n">
+        <v>65.85095408771194</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>65.85095408771194</v>
+      </c>
+      <c r="H136" t="n">
+        <v>49</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-7.852762502076526</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>335</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>1.777238607406616</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9.32723339172038</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>16.60260607458462</v>
+      </c>
+      <c r="H137" t="n">
+        <v>52</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-5.839431285037762</v>
+      </c>
+      <c r="J137" t="n">
+        <v>13</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>7.275372682864244</v>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>370</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>1.841366171836853</v>
+      </c>
+      <c r="E138" t="n">
+        <v>23.78830957099081</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>27.63513596187719</v>
+      </c>
+      <c r="H138" t="n">
+        <v>48</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-4.761906073409566</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>3.846826390886378</v>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>574</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>5.745621204376221</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-12.94172069891043</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>13.45500588772381</v>
+      </c>
+      <c r="H139" t="n">
+        <v>12</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-17.19396275185597</v>
+      </c>
+      <c r="J139" t="n">
+        <v>34</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>24</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-8.062664483771472</v>
+      </c>
+      <c r="N139" t="n">
+        <v>26.39672658663424</v>
+      </c>
+      <c r="O139" t="n">
+        <v>4.879056215138958</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-21.51767037149528</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>642</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>5.473802089691162</v>
+      </c>
+      <c r="E140" t="n">
+        <v>34.63467369142712</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>38.21974681557424</v>
+      </c>
+      <c r="H140" t="n">
+        <v>52</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-1.443313744120909</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>17</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2.626758640154816</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3.585073124147122</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-32.0079150512723</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-35.59298817541942</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>683</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>7.258514404296875</v>
+      </c>
+      <c r="E141" t="n">
+        <v>20.62208058121397</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>21.8456312277154</v>
+      </c>
+      <c r="H141" t="n">
+        <v>52</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-20.86892165936257</v>
+      </c>
+      <c r="J141" t="n">
+        <v>29</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>27</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-2.582338909046572</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1.223550646501433</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-23.20441949026054</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-24.42797013676198</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>698</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>8.313941955566406</v>
+      </c>
+      <c r="E142" t="n">
+        <v>8.923650462272613</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>11.04396504305097</v>
+      </c>
+      <c r="H142" t="n">
+        <v>52</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-30.9143514553283</v>
+      </c>
+      <c r="J142" t="n">
+        <v>14</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>12</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-14.94919016265571</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2.120314580778361</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-23.87284062492833</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-25.99315520570669</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>730</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>8.24716854095459</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.559139492746291</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>11.94303539442534</v>
+      </c>
+      <c r="H143" t="n">
+        <v>20</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-5.736977393517096</v>
+      </c>
+      <c r="J143" t="n">
+        <v>26</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>10</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.7478448522586656</v>
+      </c>
+      <c r="N143" t="n">
+        <v>10.38389590167905</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-0.8112946404876256</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-11.19519054216668</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>747</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>8.886122703552246</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-5.917603719772156</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>3.893802807248488</v>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-17.69964598834877</v>
+      </c>
+      <c r="J144" t="n">
+        <v>42</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>36</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-8.007008110841912</v>
+      </c>
+      <c r="N144" t="n">
+        <v>9.811406527020644</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-2.089404391069756</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-11.9008109180904</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>801</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>8.517581939697266</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-3.118224694815958</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6.824812604187105</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-11.45516625615056</v>
+      </c>
+      <c r="J145" t="n">
+        <v>24</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>12</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-3.510069942534887</v>
+      </c>
+      <c r="N145" t="n">
+        <v>9.943037299003063</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-0.3918452477189294</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-10.33488254672199</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>840</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>8.559633255004883</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.5539235686417558</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2.922926836154567</v>
+      </c>
+      <c r="H146" t="n">
+        <v>49</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-14.75632948134757</v>
+      </c>
+      <c r="J146" t="n">
+        <v>23</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>10</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-9.192120797386108</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3.476850404796323</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-8.638197228744353</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-12.11504763354068</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>875</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>7.859756469726562</v>
+      </c>
+      <c r="E147" t="n">
+        <v>22.74883420016037</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>23.77816884949399</v>
+      </c>
+      <c r="H147" t="n">
+        <v>47</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-1.889464803923073</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>21</v>
+      </c>
+      <c r="M147" t="n">
+        <v>5.139772217659987</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1.029334649333613</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-17.60906198250039</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-18.638396631834</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>921</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>9.361705780029297</v>
+      </c>
+      <c r="E148" t="n">
+        <v>16.86368609457992</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>20.72668185498157</v>
+      </c>
+      <c r="H148" t="n">
+        <v>52</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-2.345666546872042</v>
+      </c>
+      <c r="J148" t="n">
+        <v>4</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>3.862995760401652</v>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>973</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>10.94043445587158</v>
+      </c>
+      <c r="E149" t="n">
+        <v>8.773882425691976</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>26.94412335352017</v>
+      </c>
+      <c r="H149" t="n">
+        <v>33</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.6944344184003324</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>42</v>
+      </c>
+      <c r="M149" t="n">
+        <v>15.36006705790168</v>
+      </c>
+      <c r="N149" t="n">
+        <v>18.1702409278282</v>
+      </c>
+      <c r="O149" t="n">
+        <v>6.586184632209706</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-11.58405629561849</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>13.77632808685303</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-46.1233051587526</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>3.317954047940335</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-54.75816891190009</v>
+      </c>
+      <c r="J150" t="n">
+        <v>45</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>9</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-17.03759232875341</v>
+      </c>
+      <c r="N150" t="n">
+        <v>49.44125920669293</v>
+      </c>
+      <c r="O150" t="n">
+        <v>29.0857128299992</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-20.35554637669374</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>8.591255187988281</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8.928051289747645</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>36.06558644007495</v>
+      </c>
+      <c r="H151" t="n">
+        <v>13</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-8.112654461584906</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>19</v>
+      </c>
+      <c r="M151" t="n">
+        <v>16.46438552385147</v>
+      </c>
+      <c r="N151" t="n">
+        <v>27.1375351503273</v>
+      </c>
+      <c r="O151" t="n">
+        <v>7.536334234103828</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-19.60120091622347</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>9.553169250488279</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-4.389409680765831</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>16.42085810838602</v>
+      </c>
+      <c r="H152" t="n">
+        <v>32</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-16.05755887814787</v>
+      </c>
+      <c r="J152" t="n">
+        <v>45</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>8</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-4.029230054154706</v>
+      </c>
+      <c r="N152" t="n">
+        <v>20.81026778915185</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0.3601796266111252</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-20.45008816254072</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>10.13914394378662</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-4.228877457835114</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>9.692511316801426</v>
+      </c>
+      <c r="H153" t="n">
+        <v>13</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-20.90887043500118</v>
+      </c>
+      <c r="J153" t="n">
+        <v>26</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>22</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-5.767188068320057</v>
+      </c>
+      <c r="N153" t="n">
+        <v>13.92138877463654</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-1.538310610484944</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-15.45969938512148</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>10.33648204803467</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.55965902197399</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>7.598325680637041</v>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-22.41883228649602</v>
+      </c>
+      <c r="J154" t="n">
+        <v>17</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>13</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-7.566226114160453</v>
+      </c>
+      <c r="N154" t="n">
+        <v>6.038666658663051</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-9.125885136134443</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-15.16455179479749</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1261</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>10.41303634643555</v>
+      </c>
+      <c r="E155" t="n">
+        <v>35.55922504730345</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>41.71303303569998</v>
+      </c>
+      <c r="H155" t="n">
+        <v>50</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-10.04062183422653</v>
+      </c>
+      <c r="J155" t="n">
+        <v>9</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>6.15380798839653</v>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1279</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>11.00922679901123</v>
+      </c>
+      <c r="E156" t="n">
+        <v>33.81192204338684</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>42.89430970888846</v>
+      </c>
+      <c r="H156" t="n">
+        <v>39</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-4.961974996418104</v>
+      </c>
+      <c r="J156" t="n">
+        <v>14</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>9.082387665501621</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1288</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>11.59074592590332</v>
+      </c>
+      <c r="E157" t="n">
+        <v>41.94090101036896</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>44.5505417951827</v>
+      </c>
+      <c r="H157" t="n">
+        <v>51</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-9.730126215928541</v>
+      </c>
+      <c r="J157" t="n">
+        <v>5</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>2.609640784813742</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>12.81593132019043</v>
+      </c>
+      <c r="E158" t="n">
+        <v>26.15217288743561</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>36.70590227244644</v>
+      </c>
+      <c r="H158" t="n">
+        <v>39</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-2.714286000718374</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>44</v>
+      </c>
+      <c r="M158" t="n">
+        <v>26.98686562570553</v>
+      </c>
+      <c r="N158" t="n">
+        <v>10.55372938501082</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0.834692738269915</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-9.719036646740907</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1336</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>15.48785591125488</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.73324690579434</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>14.80412541485843</v>
+      </c>
+      <c r="H159" t="n">
+        <v>52</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.9764985187751454</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>13</v>
+      </c>
+      <c r="M159" t="n">
+        <v>5.079422080795328</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2.070878509064094</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-7.653824824999012</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-9.724703334063108</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>16.80455589294434</v>
+      </c>
+      <c r="E160" t="n">
+        <v>13.17236951171606</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>22.08841459929874</v>
+      </c>
+      <c r="H160" t="n">
+        <v>50</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-6.060408987981657</v>
+      </c>
+      <c r="J160" t="n">
+        <v>24</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>9</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.589891954158408</v>
+      </c>
+      <c r="N160" t="n">
+        <v>8.916045087582679</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-12.58247755755765</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-21.49852264514033</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1406</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>17.68514060974121</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-12.41023750049475</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>16.00934548887926</v>
+      </c>
+      <c r="H161" t="n">
+        <v>14</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-13.82815380044267</v>
+      </c>
+      <c r="J161" t="n">
+        <v>43</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>32</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-4.918029958023565</v>
+      </c>
+      <c r="N161" t="n">
+        <v>28.41958298937401</v>
+      </c>
+      <c r="O161" t="n">
+        <v>7.492207542471188</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-20.92737544690282</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1416</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>20.35108757019043</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-19.29305159566258</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.8123806621544237</v>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-32.21301172469575</v>
+      </c>
+      <c r="J162" t="n">
+        <v>47</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>22</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-17.37355540120551</v>
+      </c>
+      <c r="N162" t="n">
+        <v>20.105432257817</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1.919496194457064</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-18.18593606335994</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>16.78899002075195</v>
+      </c>
+      <c r="E163" t="n">
+        <v>19.50621578579877</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>26.29155119967292</v>
+      </c>
+      <c r="H163" t="n">
+        <v>32</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-7.714267625055244</v>
+      </c>
+      <c r="J163" t="n">
+        <v>6</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>39</v>
+      </c>
+      <c r="M163" t="n">
+        <v>11.97977884331148</v>
+      </c>
+      <c r="N163" t="n">
+        <v>6.785335413874147</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-7.526436942487289</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-14.31177235636144</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>17.29086303710938</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.92141586375967</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>22.62589717158841</v>
+      </c>
+      <c r="H164" t="n">
+        <v>25</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-9.568345037456073</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>32</v>
+      </c>
+      <c r="M164" t="n">
+        <v>8.729528739628689</v>
+      </c>
+      <c r="N164" t="n">
+        <v>9.704481307828736</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-4.191887124130981</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-13.89636843195972</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>19.84095573425293</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-0.617022554945385</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>6.865194459163426</v>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-6.523949785710396</v>
+      </c>
+      <c r="J165" t="n">
+        <v>50</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>17</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-5.245119503959432</v>
+      </c>
+      <c r="N165" t="n">
+        <v>7.482217014108811</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-4.628096949014047</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-12.11031396312286</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>20.20500183105469</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-5.582664038575545</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4.698407676867426</v>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-12.06727104714245</v>
+      </c>
+      <c r="J166" t="n">
+        <v>37</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>17</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-4.767210032058181</v>
+      </c>
+      <c r="N166" t="n">
+        <v>10.28107171544297</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0.8154540065173643</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-9.465617708925606</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>18.30971717834473</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-33.07424346832383</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>20.8110394267823</v>
+      </c>
+      <c r="H167" t="n">
+        <v>21</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-45.28591023067476</v>
+      </c>
+      <c r="J167" t="n">
+        <v>47</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>34</v>
+      </c>
+      <c r="M167" t="n">
+        <v>3.374204976996353</v>
+      </c>
+      <c r="N167" t="n">
+        <v>53.88528289510613</v>
+      </c>
+      <c r="O167" t="n">
+        <v>36.44844844532018</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-17.43683444978594</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>21.50079154968262</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-38.35016159083698</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2.880675756278865</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-53.40638938654806</v>
+      </c>
+      <c r="J168" t="n">
+        <v>28</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>15</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-11.96824301601218</v>
+      </c>
+      <c r="N168" t="n">
+        <v>41.23083734711584</v>
+      </c>
+      <c r="O168" t="n">
+        <v>26.3819185748248</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-14.84891877229104</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>16.38544464111328</v>
+      </c>
+      <c r="E169" t="n">
+        <v>46.16479091556303</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>48.26892965498615</v>
+      </c>
+      <c r="H169" t="n">
+        <v>52</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-7.830187677700565</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>36</v>
+      </c>
+      <c r="M169" t="n">
+        <v>27.42318081011404</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2.104138739423121</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-18.74161010544899</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-20.84574884487211</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>18.91786193847656</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.37900074286118</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>28.72303123325273</v>
+      </c>
+      <c r="H170" t="n">
+        <v>51</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-5.302412837788395</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>27</v>
+      </c>
+      <c r="M170" t="n">
+        <v>10.36582685447104</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1.34403049039155</v>
+      </c>
+      <c r="O170" t="n">
+        <v>-17.01317388839013</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-18.35720437878169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>23.13992881774902</v>
+      </c>
+      <c r="E171" t="n">
+        <v>13.91424174786867</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>19.62718130536659</v>
+      </c>
+      <c r="H171" t="n">
+        <v>26</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-7.743976859780275</v>
+      </c>
+      <c r="J171" t="n">
+        <v>34</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>33</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1.797248876049735</v>
+      </c>
+      <c r="N171" t="n">
+        <v>5.712939557497918</v>
+      </c>
+      <c r="O171" t="n">
+        <v>-12.11699287181894</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-17.82993242931686</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>27.18132400512696</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-8.871616147312558</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.840677795975167</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-21.46086010855747</v>
+      </c>
+      <c r="J172" t="n">
+        <v>8</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>7</v>
+      </c>
+      <c r="M172" t="n">
+        <v>-13.33825046969156</v>
+      </c>
+      <c r="N172" t="n">
+        <v>10.71229394328773</v>
+      </c>
+      <c r="O172" t="n">
+        <v>-4.466634322378999</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-15.17892826566672</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>26.35967445373535</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-3.495433196713097</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>5.008718977710534</v>
+      </c>
+      <c r="H173" t="n">
+        <v>16</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-15.60109106397186</v>
+      </c>
+      <c r="J173" t="n">
+        <v>28</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>11</v>
+      </c>
+      <c r="M173" t="n">
+        <v>-2.797534685266585</v>
+      </c>
+      <c r="N173" t="n">
+        <v>8.504152174423631</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0.6978985114465126</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-7.806253662977118</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>27.27530288696289</v>
+      </c>
+      <c r="E174" t="n">
+        <v>8.529183753360288</v>
+      </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>9.300308815657177</v>
+      </c>
+      <c r="H174" t="n">
+        <v>51</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-18.43435165416485</v>
+      </c>
+      <c r="J174" t="n">
+        <v>12</v>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>12</v>
+      </c>
+      <c r="M174" t="n">
+        <v>-16.09849403997758</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.771125062296889</v>
+      </c>
+      <c r="O174" t="n">
+        <v>-24.62767779333787</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-25.39880285563476</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1852</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>25.19855499267578</v>
+      </c>
+      <c r="E175" t="n">
+        <v>39.13629998561837</v>
+      </c>
+      <c r="F175" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>41.62818987422607</v>
+      </c>
+      <c r="H175" t="n">
+        <v>51</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-3.2769500540113</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>13</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.0704775457373612</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2.491889888607695</v>
+      </c>
+      <c r="O175" t="n">
+        <v>-39.06582243988101</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-41.55771232848871</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>30.2417984008789</v>
+      </c>
+      <c r="E176" t="n">
+        <v>29.7864224531031</v>
+      </c>
+      <c r="F176" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>31.97116140384965</v>
+      </c>
+      <c r="H176" t="n">
+        <v>52</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-3.054122560791171</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>9</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-0.03023573275798912</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2.184738950746556</v>
+      </c>
+      <c r="O176" t="n">
+        <v>-29.81665818586109</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-32.00139713660764</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>34.62923049926758</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.13618430365357</v>
+      </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>15.25076359954011</v>
+      </c>
+      <c r="H177" t="n">
+        <v>31</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-13.92139134849728</v>
+      </c>
+      <c r="J177" t="n">
+        <v>39</v>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>39</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-8.086952354881582</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3.114579295886543</v>
+      </c>
+      <c r="O177" t="n">
+        <v>-20.22313665853515</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-23.33771595442169</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>36.75665664672852</v>
+      </c>
+      <c r="E178" t="n">
+        <v>10.63347066178043</v>
+      </c>
+      <c r="F178" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>20.688626307319</v>
+      </c>
+      <c r="H178" t="n">
+        <v>51</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-18.9035061404465</v>
+      </c>
+      <c r="J178" t="n">
+        <v>21</v>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>21</v>
+      </c>
+      <c r="M178" t="n">
+        <v>-13.40675667583448</v>
+      </c>
+      <c r="N178" t="n">
+        <v>10.05515564553857</v>
+      </c>
+      <c r="O178" t="n">
+        <v>-24.04022733761491</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-34.09538298315348</v>
       </c>
     </row>
   </sheetData>
@@ -6959,7 +9137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7172,40 +9350,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.30450644301124</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.63347066178043</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.16485756478079</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.39376096263501</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-13.37360799355785</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.08925451962377</v>
+      </c>
+      <c r="J4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.22222222222222</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-6.192951329269106</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>14.99034375516725</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>14.36738377049311</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>22.90303069377609</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>25.07215915906468</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-10.5878716931357</v>
       </c>
     </row>
